--- a/IT_Inventory-Template.xlsx
+++ b/IT_Inventory-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1e0d50971877758/Documents/Working/IIDP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1e0d50971877758/Documents/IID/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACB6C1F8-2300-4FE9-AFA0-AB917008DC8A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{ACB6C1F8-2300-4FE9-AFA0-AB917008DC8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{99ADF9E4-F3AA-4C1B-8334-A12D9403477B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="Network Equipment" sheetId="5" r:id="rId5"/>
     <sheet name="Other Equipment" sheetId="6" r:id="rId6"/>
     <sheet name="Account Information" sheetId="7" r:id="rId7"/>
+    <sheet name="Software Licenses" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>Hostname</t>
   </si>
@@ -128,6 +129,24 @@
   </si>
   <si>
     <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>License Key</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>Assigned Date</t>
   </si>
 </sst>
 </file>
@@ -793,6 +812,21 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Phone Number" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{05F458B4-D727-40CF-AFDB-6D64AA125708}" name="Table8" displayName="Table8" ref="A1:F2" totalsRowShown="0">
+  <autoFilter ref="A1:F2" xr:uid="{04794439-DD6B-4D51-B185-F9182FCED1FE}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{2ADDE3FE-969B-4BF9-AC93-223868816A34}" name="Company"/>
+    <tableColumn id="2" xr3:uid="{EB290B3A-6333-45E5-A5A5-63CE15897758}" name="Software"/>
+    <tableColumn id="3" xr3:uid="{08031ED1-87F3-4C6F-A9AE-A89392EE3FDC}" name="Version"/>
+    <tableColumn id="4" xr3:uid="{3F7016BC-7A54-4C06-8262-E28683CEC6DC}" name="License Key"/>
+    <tableColumn id="5" xr3:uid="{6AF91515-4853-4EEB-BEED-34D5E4E1A77E}" name="Assigned To"/>
+    <tableColumn id="6" xr3:uid="{CB35BA3E-8651-47A7-858D-D44A006A3453}" name="Assigned Date"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1119,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -1580,4 +1614,50 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96336563-E923-4BF3-8673-3DDFB84D0244}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/IT_Inventory-Template.xlsx
+++ b/IT_Inventory-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1e0d50971877758/Documents/IID/git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1e0d50971877758/Documents/IIDP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{ACB6C1F8-2300-4FE9-AFA0-AB917008DC8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{99ADF9E4-F3AA-4C1B-8334-A12D9403477B}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{ACB6C1F8-2300-4FE9-AFA0-AB917008DC8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3F5669A4-E587-4690-A5DE-425D24CF2B5C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="Other Equipment" sheetId="6" r:id="rId6"/>
     <sheet name="Account Information" sheetId="7" r:id="rId7"/>
     <sheet name="Software Licenses" sheetId="8" r:id="rId8"/>
+    <sheet name="Drive Mappings" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>Hostname</t>
   </si>
@@ -147,6 +148,15 @@
   </si>
   <si>
     <t>Assigned Date</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>Mapped To</t>
   </si>
 </sst>
 </file>
@@ -163,8 +173,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -186,486 +196,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -676,158 +218,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L2" totalsRowShown="0">
-  <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Hostname"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="IP Address"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="MAC Address"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Make"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Model"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Serial Number"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="OS"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CPU"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Memory"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="HDDs"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Location"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table7" displayName="Table7" ref="A1:L2" totalsRowShown="0">
-  <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Hostname"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="IP Address"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MAC Address"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Make"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Model"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Serial Number"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="OS"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="CPU"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Memory"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="HDDs"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Location"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table6" displayName="Table6" ref="A1:L2" totalsRowShown="0">
-  <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Hostname"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="IP Address"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MAC Address"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Make"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Model"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Serial Number"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="OS"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="CPU"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Memory"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="HDDs"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Location"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="A1:H2" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37">
-  <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Host Name" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Make" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Model" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Name" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="IP Address" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="MAC Address" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Serial" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Location" dataDxfId="29"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table4" displayName="Table4" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25">
-  <autoFilter ref="A1:Q2" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Network Name" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Manufacturer" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Model" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Asset Number" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Serial Number" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Software Version" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Device Type" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Internal IP" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Internal MAC" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Internal Subnet Mask" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="External IP" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="External Subnet Mask" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="External Gateway" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="External MAC" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Location" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="Purpose" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="Notes" dataDxfId="8"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table3" displayName="Table3" ref="A1:H2" totalsRowShown="0">
-  <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="IP Address"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="MAC Address"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Make"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Model"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Serial"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Device Type"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Location"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table2" displayName="Table2" ref="A1:E2" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6">
-  <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Connection" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Provider" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Account #" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Challenge/Response" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Phone Number" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{05F458B4-D727-40CF-AFDB-6D64AA125708}" name="Table8" displayName="Table8" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2" xr:uid="{04794439-DD6B-4D51-B185-F9182FCED1FE}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2ADDE3FE-969B-4BF9-AC93-223868816A34}" name="Company"/>
-    <tableColumn id="2" xr3:uid="{EB290B3A-6333-45E5-A5A5-63CE15897758}" name="Software"/>
-    <tableColumn id="3" xr3:uid="{08031ED1-87F3-4C6F-A9AE-A89392EE3FDC}" name="Version"/>
-    <tableColumn id="4" xr3:uid="{3F7016BC-7A54-4C06-8262-E28683CEC6DC}" name="License Key"/>
-    <tableColumn id="5" xr3:uid="{6AF91515-4853-4EEB-BEED-34D5E4E1A77E}" name="Assigned To"/>
-    <tableColumn id="6" xr3:uid="{CB35BA3E-8651-47A7-858D-D44A006A3453}" name="Assigned Date"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1153,8 +543,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1174,48 +565,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -1224,7 +612,8 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1239,48 +628,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -1289,7 +675,8 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1304,57 +691,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1372,49 +757,37 @@
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1443,76 +816,54 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -1521,7 +872,8 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1534,45 +886,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1584,35 +934,25 @@
     <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -1620,8 +960,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96336563-E923-4BF3-8673-3DDFB84D0244}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1635,29 +976,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84342C0A-471F-47A2-9B56-F440DAAD5E57}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>